--- a/data/specialthanks.xlsx
+++ b/data/specialthanks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[Document]\Tencent Files\1281616438\FileRecv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5188866A-9D73-4020-92AC-779C5AB454BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CFF8DE-5306-42A7-9046-C645220B4389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="specialthanks" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
   <si>
     <t>$id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,393 @@
   </si>
   <si>
     <t>加藤骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shiki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂啸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穆尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是嘉然小姐的狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪之恶魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄胖子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁丁炒面196</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吱歪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lain音酱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 热心网友影绰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛤迩斯特斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八云碎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rouben</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火星落日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是个路人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大宝向前冲冲冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去的以前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小迷途哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paradox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱发电用户_4KcF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖罐子胖摔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御坂零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会飞的煤球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hapemxg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺开文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王野</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煋人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陌生人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玘宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俊夫爱贺宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脑洞，记录每个人的灵感。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一只大肥羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骰一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优纪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金牛座小南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水墨苍穹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allen Slettes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槐明清雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古米廖夫Offical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aruupaka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KNK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 空白永不败北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过多久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhaow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北村·失恋大明神·佑作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灬</t>
+  </si>
+  <si>
+    <t>打个肉山盹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changduangeng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>konoMozartda！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10thD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与扇皆落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌兰洛娃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝多布芬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心态棒棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松之道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和林七友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indigle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simple森破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿凡达搞葫芦娃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米-Maons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lenny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人生苦短</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活可以失去很多，但沙雕不能丢失。愿快乐长存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kamuXiY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DKLucy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金闪闪yyds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Devil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君漪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小明皮痒求锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏戀雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴蓝茶陌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎黎要早睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3Yi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬瓜汤圆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漩涡派大星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神丶暴龙战士灬张杨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NovaDNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千梦天宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸，霸宋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棠椿庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷心菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leavatain</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,8 +509,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -404,127 +797,1183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.9140625" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="42.25" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="5.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.21875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1">
+        <v>2</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1">
+        <v>2</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1">
+        <v>2</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1">
+        <v>2</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1">
+        <v>2</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1">
+        <v>2</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1">
+        <v>2</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1">
+        <v>2</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1">
+        <v>2</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1">
+        <v>2</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1">
+        <v>2</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1">
+        <v>2</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1">
+        <v>2</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1">
+        <v>2</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1">
+        <v>2</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1">
+        <v>2</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1">
+        <v>2</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1">
+        <v>2</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1">
+        <v>2</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1">
+        <v>2</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1">
+        <v>2</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1">
+        <v>2</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1">
+        <v>2</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1">
+        <v>2</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1">
+        <v>2</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1">
+        <v>2</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1">
+        <v>2</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/data/specialthanks.xlsx
+++ b/data/specialthanks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CFF8DE-5306-42A7-9046-C645220B4389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFC2E7A-DF07-4D67-9685-B7C370D39E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="180">
   <si>
     <t>$id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,10 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>爱发电用户_4KcF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>胖罐子胖摔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -466,6 +462,286 @@
   </si>
   <si>
     <t>leavatain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南溪潇湘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弥夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午安僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抹茶菠萝包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血溅未央</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千层蛋糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零下热情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者真给力，游戏真稀奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呆了个呆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天一方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰棍雪糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄一碗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我也不知道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江子川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘿嘿567</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Undead恩赐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安德拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷只想要修仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rua宝rua宝rua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变成光出轨奶琳小姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二哥没牛子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活在梦里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖贼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wairy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尨图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哆啦xzx梦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符狸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吾名洛尉迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体目光向我看齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lkaiser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sky_sam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 鱿鱼有了忧郁症很犹豫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没人要的瓜娃子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六道神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incubator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨溟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好大只36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissVIP_ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拂晓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清岗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红尘多情客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Akily</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具人老衲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊296</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻幻幻啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brinter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俗人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我大哥瀚青青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>233号咸鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leeeooo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nybama</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿泰格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特别感谢媳妇对我事业的支持。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">⁣​ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老茶树菇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若真的可以重来，那这次人生的意义不就变了吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱发电用户_fUH5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Autumn_Loveworld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果可以，请拾起年少时的幻想与疯狂，那是生活不曾亏待于我们的证明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bronies,bronies everywhere.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白微瑕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓜皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝国内各位有梦想的独立游戏制作人一切顺利</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -797,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -941,7 +1217,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -996,7 +1272,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1043,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1087,7 +1363,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1109,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1142,10 +1418,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1288,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1299,7 +1575,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1310,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1321,7 +1597,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1332,7 +1608,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1343,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1365,7 +1641,7 @@
         <v>2</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1376,7 +1652,7 @@
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1387,7 +1663,7 @@
         <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1398,7 +1674,7 @@
         <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1409,7 +1685,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1420,7 +1696,7 @@
         <v>2</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1431,7 +1707,7 @@
         <v>2</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1442,7 +1718,7 @@
         <v>2</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1453,7 +1729,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1464,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1475,7 +1751,7 @@
         <v>2</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1486,7 +1762,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1497,7 +1773,7 @@
         <v>2</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1508,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1519,10 +1795,10 @@
         <v>2</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1530,10 +1806,10 @@
         <v>2</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1541,10 +1817,10 @@
         <v>2</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1552,10 +1828,10 @@
         <v>2</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1563,10 +1839,10 @@
         <v>2</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1574,10 +1850,10 @@
         <v>2</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1585,10 +1861,10 @@
         <v>2</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1596,10 +1872,10 @@
         <v>2</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1607,10 +1883,10 @@
         <v>2</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1618,10 +1894,10 @@
         <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1629,10 +1905,10 @@
         <v>2</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1640,10 +1916,10 @@
         <v>2</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1651,21 +1927,24 @@
         <v>2</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1673,10 +1952,10 @@
         <v>2</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1684,10 +1963,10 @@
         <v>2</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1695,7 +1974,7 @@
         <v>2</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1706,7 +1985,7 @@
         <v>2</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1717,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1728,10 +2007,10 @@
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1742,7 +2021,7 @@
         <v>2</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1753,7 +2032,7 @@
         <v>2</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1764,7 +2043,7 @@
         <v>2</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1775,7 +2054,7 @@
         <v>2</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1786,7 +2065,7 @@
         <v>2</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1797,7 +2076,7 @@
         <v>2</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1808,7 +2087,7 @@
         <v>2</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1819,7 +2098,7 @@
         <v>2</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1830,7 +2109,7 @@
         <v>2</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1841,7 +2120,7 @@
         <v>2</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -1852,7 +2131,7 @@
         <v>2</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -1863,7 +2142,7 @@
         <v>2</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1874,10 +2153,10 @@
         <v>2</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -1885,10 +2164,10 @@
         <v>2</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -1896,10 +2175,10 @@
         <v>2</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -1907,10 +2186,10 @@
         <v>2</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -1918,10 +2197,10 @@
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -1929,10 +2208,10 @@
         <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -1940,10 +2219,10 @@
         <v>2</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -1951,10 +2230,10 @@
         <v>2</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -1962,10 +2241,10 @@
         <v>2</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -1973,7 +2252,715 @@
         <v>2</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1">
+        <v>2</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1">
+        <v>2</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1">
+        <v>2</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1">
+        <v>2</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1">
+        <v>2</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1">
+        <v>1</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1">
+        <v>2</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1">
+        <v>2</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1">
+        <v>2</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1">
+        <v>2</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1">
+        <v>2</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1">
+        <v>2</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" s="1">
+        <v>2</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1">
+        <v>2</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1">
+        <v>2</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1">
+        <v>2</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" s="1">
+        <v>2</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" s="1">
+        <v>2</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1">
+        <v>2</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" s="1">
+        <v>2</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" s="1">
+        <v>2</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" s="1">
+        <v>2</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" s="1">
+        <v>2</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1">
+        <v>2</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" s="1">
+        <v>2</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" s="1">
+        <v>2</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" s="1">
+        <v>2</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" s="1">
+        <v>2</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" s="1">
+        <v>2</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" s="1">
+        <v>2</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" s="1">
+        <v>2</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" s="1">
+        <v>2</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" s="1">
+        <v>2</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" s="1">
+        <v>2</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="1">
+        <v>2</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="1">
+        <v>2</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="1">
+        <v>1</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="1">
+        <v>2</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="1">
+        <v>2</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" s="1">
+        <v>2</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" s="1">
+        <v>2</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" s="1">
+        <v>2</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" s="1">
+        <v>2</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" s="1">
+        <v>2</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" s="1">
+        <v>2</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" s="1">
+        <v>2</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" s="1">
+        <v>2</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" s="1">
+        <v>2</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" s="1">
+        <v>2</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" s="1">
+        <v>2</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" s="1">
+        <v>2</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" s="1">
+        <v>2</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" s="1">
+        <v>2</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" s="1">
+        <v>2</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" s="1">
+        <v>2</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" s="1">
+        <v>2</v>
+      </c>
+      <c r="C162" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" s="1">
+        <v>2</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" s="1">
+        <v>1</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" s="1">
+        <v>2</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" s="1">
+        <v>2</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" s="1">
+        <v>2</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" s="1">
+        <v>1</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/data/specialthanks.xlsx
+++ b/data/specialthanks.xlsx
@@ -1,748 +1,785 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[Document]\Tencent Files\1281616438\FileRecv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFC2E7A-DF07-4D67-9685-B7C370D39E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB93B3F-7CF5-40C1-BB05-953C01688E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="specialthanks" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="253">
   <si>
     <t>$id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
   </si>
   <si>
     <t>白夜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>买正版游戏，就是在给自己向往的世界投资。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>果てない雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>qwe凑斗光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>星芒月幻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>宇宙常数圆周率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当然是选择原谅她了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>好好吃饭.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>加藤骑士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>amy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhaow</t>
   </si>
   <si>
     <t>shiki</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小羊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>狂啸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>穆尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北村·失恋大明神·佑作</t>
   </si>
   <si>
     <t>好奶茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>鬼！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>阿园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我是嘉然小姐的狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灬</t>
   </si>
   <si>
     <t>枪之恶魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黄胖子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>丁丁炒面196</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打个肉山盹</t>
   </si>
   <si>
     <t>吱歪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changduangeng</t>
+  </si>
+  <si>
+    <t>八云碎</t>
   </si>
   <si>
     <t xml:space="preserve"> Lain音酱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>脑洞，记录每个人的灵感。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 热心网友影绰</t>
   </si>
   <si>
     <t>然然</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 热心网友影绰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蛤迩斯特斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八云碎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>石龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Rouben</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>火星落日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我是个路人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>大宝向前冲冲冲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>失去的以前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小迷途哦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七</t>
+  </si>
+  <si>
+    <t>爷只想要修仙</t>
+  </si>
+  <si>
+    <t>胖罐子胖摔</t>
+  </si>
+  <si>
+    <t>御坂零</t>
+  </si>
+  <si>
+    <t>会飞的煤球</t>
+  </si>
+  <si>
+    <t>hapemxg</t>
+  </si>
+  <si>
+    <t>贺开文</t>
   </si>
   <si>
     <t>Paradox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胖罐子胖摔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>御坂零</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会飞的煤球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hapemxg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贺开文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>王野</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>煋人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>陌生人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>玘宁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>俊夫爱贺宁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脑洞，记录每个人的灵感。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一只大肥羊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>骰一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>优纪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>金牛座小南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>水墨苍穹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>konoMozartda！</t>
+  </si>
+  <si>
+    <t>10thD</t>
   </si>
   <si>
     <t>Allen Slettes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>槐明清雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>古米廖夫Offical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Aruupaka</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>KNK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 空白永不败北</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>过多久</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhaow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北村·失恋大明神·佑作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灬</t>
-  </si>
-  <si>
-    <t>打个肉山盹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>changduangeng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>konoMozartda！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10thD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>春夏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>与扇皆落</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>乌兰洛娃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>贝多布芬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>心态棒棒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>木头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>松之道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>和林七友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>indigle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bronies,bronies everywhere.</t>
   </si>
   <si>
     <t>Simple森破</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>阿凡达搞葫芦娃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>林海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>米-Maons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Lenny</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人生苦短</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生活可以失去很多，但沙雕不能丢失。愿快乐长存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kkr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kamuXiY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DKLucy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>金闪闪yyds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Devil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>君漪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小明皮痒求锤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>夏戀雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ap0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>晴蓝茶陌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黎黎要早睡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>L3Yi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>冬瓜汤圆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>漩涡派大星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>神丶暴龙战士灬张杨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NovaDNG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>千梦天宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>霸，霸宋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>棠椿庭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>卷心菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>鸡神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>leavatain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>南溪潇湘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>弥夏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>午安僵尸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>抹茶菠萝包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>血溅未央</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>千层蛋糕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果可以，请拾起年少时的幻想与疯狂，那是生活不曾亏待于我们的证明</t>
   </si>
   <si>
     <t>零下热情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>作者真给力，游戏真稀奇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>淼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>呆了个呆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>天一方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>冰棍雪糕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>番茄一碗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我也不知道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>江子川</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>嘿嘿567</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Undead恩赐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>安德拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷只想要修仙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rua宝rua宝rua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>变成光出轨奶琳小姐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>二哥没牛子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>活在梦里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>胖贼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>wairy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>尨图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>哆啦xzx梦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>符狸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>吾名洛尉迟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nybama</t>
   </si>
   <si>
     <t>全体目光向我看齐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>墨水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lkaiser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 鱿鱼有了忧郁症很犹豫</t>
   </si>
   <si>
     <t>sky_sam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 鱿鱼有了忧郁症很犹豫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>没人要的瓜娃子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>六道神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Incubator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>雨溟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>印记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特别感谢媳妇对我事业的支持。</t>
   </si>
   <si>
     <t>草帽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>好大只36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MissVIP_ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>拂晓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>清岗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>红尘多情客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Akily</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>工具人老衲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小爱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>羊296</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>轻幻幻啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Brinter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>俗人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我大哥瀚青青</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>233号咸鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Leeeooo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nybama</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>阿泰格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特别感谢媳妇对我事业的支持。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">⁣​ </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>老茶树菇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱发电用户_fUH5</t>
   </si>
   <si>
     <t>若真的可以重来，那这次人生的意义不就变了吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱发电用户_fUH5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Autumn_Loveworld</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果可以，请拾起年少时的幻想与疯狂，那是生活不曾亏待于我们的证明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bronies,bronies everywhere.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PPCC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>白微瑕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>瓜皮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>祝国内各位有梦想的独立游戏制作人一切顺利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可口可乐终身自费会员</t>
+  </si>
+  <si>
+    <t>不吃香菜，多麻多辣，谢谢</t>
+  </si>
+  <si>
+    <t>瑞塔蒂德</t>
+  </si>
+  <si>
+    <t>人活着就是为了小忍！！</t>
+  </si>
+  <si>
+    <t>大屁股裂</t>
+  </si>
+  <si>
+    <t>此事难知</t>
+  </si>
+  <si>
+    <t>法国蓝</t>
+  </si>
+  <si>
+    <t>六一</t>
+  </si>
+  <si>
+    <t>弹剑而歌</t>
+  </si>
+  <si>
+    <t>八级大狂风</t>
+  </si>
+  <si>
+    <t>莫</t>
+  </si>
+  <si>
+    <t>阳</t>
+  </si>
+  <si>
+    <t>啊里巴巴</t>
+  </si>
+  <si>
+    <t>plp</t>
+  </si>
+  <si>
+    <t>3D智作工作室</t>
+  </si>
+  <si>
+    <t>陈睿柠檬什么时候熟啊</t>
+  </si>
+  <si>
+    <t>网络清纯少男</t>
+  </si>
+  <si>
+    <t>Aunotyal</t>
+  </si>
+  <si>
+    <t>毒萘</t>
+  </si>
+  <si>
+    <t>书山</t>
+  </si>
+  <si>
+    <t>莫璃yyds</t>
+  </si>
+  <si>
+    <t>霖与佳</t>
+  </si>
+  <si>
+    <t>活着到达梦想</t>
+  </si>
+  <si>
+    <t>乌君</t>
+  </si>
+  <si>
+    <t>邪恶的默默</t>
+  </si>
+  <si>
+    <t>悦</t>
+  </si>
+  <si>
+    <t>麝續</t>
+  </si>
+  <si>
+    <t>月崽今天好好睡觉了吗</t>
+  </si>
+  <si>
+    <t>卢本伟牛逼</t>
+  </si>
+  <si>
+    <t>三水</t>
+  </si>
+  <si>
+    <t>圣经上的子弹</t>
+  </si>
+  <si>
+    <t>finewk</t>
+  </si>
+  <si>
+    <t>MAMINO</t>
+  </si>
+  <si>
+    <t>大禹</t>
+  </si>
+  <si>
+    <t>PIMI想看子煜跳扇子舞</t>
+  </si>
+  <si>
+    <t>炁息</t>
+  </si>
+  <si>
+    <t>葡萄树</t>
+  </si>
+  <si>
+    <t>打外星人和僵尸</t>
+  </si>
+  <si>
+    <t>浮生如梦</t>
+  </si>
+  <si>
+    <t>槐序</t>
+  </si>
+  <si>
+    <t>颜苯Benzene</t>
+  </si>
+  <si>
+    <t>啊畅啊这是</t>
+  </si>
+  <si>
+    <t>Lyn</t>
+  </si>
+  <si>
+    <t>阿修</t>
+  </si>
+  <si>
+    <t>我欲成仙</t>
+  </si>
+  <si>
+    <t>苏巴提</t>
+  </si>
+  <si>
+    <t>层林字</t>
+  </si>
+  <si>
+    <t>“愿和憨憨的一生可以“白头偕老”最后可以在“睡梦中牵着手安祥的离开这个世界”！并在下辈子保留“白头偕老”这个特性！</t>
+  </si>
+  <si>
+    <t>卫星冰咖啡</t>
+  </si>
+  <si>
+    <t>万里追风踏月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">游戏可以重开，人生再无重来。
+</t>
+  </si>
+  <si>
+    <t>憧憬</t>
+  </si>
+  <si>
+    <t>Mr.Paradox</t>
+  </si>
+  <si>
+    <t>月影十六夜</t>
+  </si>
+  <si>
+    <t>守护者威廉</t>
+  </si>
+  <si>
+    <t>爱因</t>
+  </si>
+  <si>
+    <t>没有橙子</t>
+  </si>
+  <si>
+    <t>冰凌君</t>
+  </si>
+  <si>
+    <t>无我</t>
+  </si>
+  <si>
+    <t>lxncyxf</t>
+  </si>
+  <si>
+    <t>发光的石头</t>
+  </si>
+  <si>
+    <t>祖传药丸收集者</t>
+  </si>
+  <si>
+    <t>兄弟二人可否考虑创业，我给你们拉投资</t>
+  </si>
+  <si>
+    <t>神龙不长眼</t>
+  </si>
+  <si>
+    <t>川菜</t>
+  </si>
+  <si>
+    <t>涟墨柒子虚</t>
+  </si>
+  <si>
+    <t>祥瑞御兔</t>
+  </si>
+  <si>
+    <t>那么可爱当然是男孩子</t>
+  </si>
+  <si>
+    <t>小破孩儿</t>
+  </si>
+  <si>
+    <t>封封.FFFBoX</t>
+  </si>
+  <si>
+    <t>手扶拖拉机没有未来?</t>
+  </si>
+  <si>
+    <t>希月</t>
+  </si>
+  <si>
+    <t>超级无敌暴龙战士</t>
   </si>
 </sst>
 </file>
@@ -754,13 +791,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -853,7 +889,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -888,7 +924,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1063,51 +1099,46 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D168"/>
+  <dimension ref="A1:D237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="D176" sqref="D176"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="D245" sqref="D245"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="5.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.21875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.9140625" style="1"/>
+    <col min="2" max="2" width="5.9140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.08203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.25" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1121,7 +1152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1132,7 +1163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1143,7 +1174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1154,7 +1185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1165,7 +1196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1176,7 +1207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1187,7 +1218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,7 +1229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1209,7 +1240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1217,10 +1248,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1228,10 +1259,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1239,10 +1270,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1250,10 +1281,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1261,10 +1292,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1272,10 +1303,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1283,10 +1314,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1294,10 +1325,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1305,13 +1336,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1319,10 +1350,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1330,10 +1361,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1341,10 +1372,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1352,10 +1383,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1363,10 +1394,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1374,10 +1405,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1385,10 +1416,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1396,10 +1427,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1407,10 +1438,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1418,13 +1449,13 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1432,10 +1463,10 @@
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1443,10 +1474,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1454,10 +1485,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1465,10 +1496,10 @@
         <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1476,10 +1507,10 @@
         <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1487,10 +1518,10 @@
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1498,10 +1529,10 @@
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1509,10 +1540,10 @@
         <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1520,10 +1551,10 @@
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1531,10 +1562,10 @@
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1542,10 +1573,10 @@
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1553,10 +1584,10 @@
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1564,10 +1595,10 @@
         <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1575,10 +1606,10 @@
         <v>2</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1586,10 +1617,10 @@
         <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1597,10 +1628,10 @@
         <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1608,10 +1639,10 @@
         <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1619,10 +1650,10 @@
         <v>2</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1630,10 +1661,10 @@
         <v>2</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1641,10 +1672,10 @@
         <v>2</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1652,10 +1683,10 @@
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1663,10 +1694,10 @@
         <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1674,10 +1705,10 @@
         <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1685,10 +1716,10 @@
         <v>2</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1696,10 +1727,10 @@
         <v>2</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1707,10 +1738,10 @@
         <v>2</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1718,10 +1749,10 @@
         <v>2</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1729,10 +1760,10 @@
         <v>2</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1740,10 +1771,10 @@
         <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1751,10 +1782,10 @@
         <v>2</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1762,10 +1793,10 @@
         <v>2</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1773,10 +1804,10 @@
         <v>2</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1784,10 +1815,10 @@
         <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1795,10 +1826,10 @@
         <v>2</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1806,10 +1837,10 @@
         <v>2</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1817,10 +1848,10 @@
         <v>2</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1828,10 +1859,10 @@
         <v>2</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1839,10 +1870,10 @@
         <v>2</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1850,10 +1881,10 @@
         <v>2</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1861,10 +1892,10 @@
         <v>2</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1872,10 +1903,10 @@
         <v>2</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1883,10 +1914,10 @@
         <v>2</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1894,10 +1925,10 @@
         <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1905,10 +1936,10 @@
         <v>2</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1916,10 +1947,10 @@
         <v>2</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1927,10 +1958,10 @@
         <v>2</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1938,13 +1969,13 @@
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1952,10 +1983,10 @@
         <v>2</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1963,10 +1994,10 @@
         <v>2</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1974,10 +2005,10 @@
         <v>2</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1985,10 +2016,10 @@
         <v>2</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1996,10 +2027,10 @@
         <v>2</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2007,13 +2038,13 @@
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2021,10 +2052,10 @@
         <v>2</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2032,10 +2063,10 @@
         <v>2</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2043,10 +2074,10 @@
         <v>2</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2054,10 +2085,10 @@
         <v>2</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2065,10 +2096,10 @@
         <v>2</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2076,10 +2107,10 @@
         <v>2</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2087,10 +2118,10 @@
         <v>2</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2098,10 +2129,10 @@
         <v>2</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2109,10 +2140,10 @@
         <v>2</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2120,10 +2151,10 @@
         <v>2</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2131,10 +2162,10 @@
         <v>2</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2142,10 +2173,10 @@
         <v>2</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2153,10 +2184,10 @@
         <v>2</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2164,10 +2195,10 @@
         <v>2</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2175,10 +2206,10 @@
         <v>2</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2186,10 +2217,10 @@
         <v>2</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2197,10 +2228,10 @@
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2208,10 +2239,10 @@
         <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2219,10 +2250,10 @@
         <v>2</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2230,10 +2261,10 @@
         <v>2</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2241,10 +2272,10 @@
         <v>2</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2252,10 +2283,10 @@
         <v>2</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2263,10 +2294,10 @@
         <v>2</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2274,10 +2305,10 @@
         <v>2</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2285,10 +2316,10 @@
         <v>2</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2296,10 +2327,10 @@
         <v>2</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2307,10 +2338,10 @@
         <v>2</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2318,13 +2349,13 @@
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2332,13 +2363,13 @@
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2346,10 +2377,10 @@
         <v>2</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2357,10 +2388,10 @@
         <v>2</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2368,10 +2399,10 @@
         <v>2</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2379,10 +2410,10 @@
         <v>2</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2390,10 +2421,10 @@
         <v>2</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2401,10 +2432,10 @@
         <v>2</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2412,10 +2443,10 @@
         <v>2</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2423,10 +2454,10 @@
         <v>2</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2434,10 +2465,10 @@
         <v>2</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2445,10 +2476,10 @@
         <v>2</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2456,10 +2487,10 @@
         <v>2</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2467,10 +2498,10 @@
         <v>2</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2478,10 +2509,10 @@
         <v>2</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2489,10 +2520,10 @@
         <v>2</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2500,10 +2531,10 @@
         <v>2</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2511,10 +2542,10 @@
         <v>2</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2522,10 +2553,10 @@
         <v>2</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2533,10 +2564,10 @@
         <v>2</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -2544,10 +2575,10 @@
         <v>2</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -2555,10 +2586,10 @@
         <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -2566,10 +2597,10 @@
         <v>2</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -2577,10 +2608,10 @@
         <v>2</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -2588,10 +2619,10 @@
         <v>2</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -2599,10 +2630,10 @@
         <v>2</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -2610,10 +2641,10 @@
         <v>2</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -2621,10 +2652,10 @@
         <v>2</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -2632,10 +2663,10 @@
         <v>2</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -2643,10 +2674,10 @@
         <v>2</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -2654,10 +2685,10 @@
         <v>2</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -2665,10 +2696,10 @@
         <v>2</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -2676,13 +2707,13 @@
         <v>1</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -2690,10 +2721,10 @@
         <v>2</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -2701,10 +2732,10 @@
         <v>2</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -2712,10 +2743,10 @@
         <v>2</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -2723,10 +2754,10 @@
         <v>2</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -2734,10 +2765,10 @@
         <v>2</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -2745,10 +2776,10 @@
         <v>2</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -2756,10 +2787,10 @@
         <v>2</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -2767,10 +2798,10 @@
         <v>2</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -2778,10 +2809,10 @@
         <v>2</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -2789,10 +2820,10 @@
         <v>2</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -2800,10 +2831,10 @@
         <v>2</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -2811,10 +2842,10 @@
         <v>2</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -2822,10 +2853,10 @@
         <v>2</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -2833,10 +2864,10 @@
         <v>2</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -2844,10 +2875,10 @@
         <v>2</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -2855,10 +2886,10 @@
         <v>2</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -2866,10 +2897,10 @@
         <v>2</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -2877,10 +2908,10 @@
         <v>2</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -2888,10 +2919,10 @@
         <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -2899,10 +2930,10 @@
         <v>2</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -2910,13 +2941,13 @@
         <v>1</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -2924,10 +2955,10 @@
         <v>2</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -2938,7 +2969,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -2949,7 +2980,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -2961,6 +2992,781 @@
       </c>
       <c r="D168" s="1" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" s="1">
+        <v>1</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" s="1">
+        <v>1</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" s="1">
+        <v>2</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" s="1">
+        <v>2</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" s="1">
+        <v>2</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" s="1">
+        <v>2</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" s="1">
+        <v>2</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" s="1">
+        <v>2</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" s="1">
+        <v>2</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" s="1">
+        <v>2</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" s="1">
+        <v>2</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" s="1">
+        <v>2</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" s="1">
+        <v>2</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" s="1">
+        <v>2</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" s="1">
+        <v>2</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" s="1">
+        <v>2</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" s="1">
+        <v>2</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" s="1">
+        <v>2</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" s="1">
+        <v>2</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" s="1">
+        <v>2</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" s="1">
+        <v>2</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" s="1">
+        <v>2</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" s="1">
+        <v>2</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" s="1">
+        <v>2</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" s="1">
+        <v>2</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" s="1">
+        <v>2</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" s="1">
+        <v>2</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" s="1">
+        <v>2</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" s="1">
+        <v>2</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" s="1">
+        <v>2</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" s="1">
+        <v>2</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" s="1">
+        <v>2</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" s="1">
+        <v>2</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" s="1">
+        <v>2</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" s="1">
+        <v>2</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" s="1">
+        <v>2</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" s="1">
+        <v>2</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" s="1">
+        <v>2</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" s="1">
+        <v>2</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" s="1">
+        <v>2</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" s="1">
+        <v>2</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" s="1">
+        <v>2</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" s="1">
+        <v>2</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" s="1">
+        <v>2</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" s="1">
+        <v>2</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" s="1">
+        <v>1</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" s="1">
+        <v>2</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" s="1">
+        <v>1</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" s="1">
+        <v>2</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D217" s="2"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" s="1">
+        <v>2</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" s="1">
+        <v>2</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" s="1">
+        <v>2</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" s="1">
+        <v>2</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" s="1">
+        <v>2</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" s="1">
+        <v>2</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" s="1">
+        <v>2</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" s="1">
+        <v>2</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" s="1">
+        <v>2</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" s="1">
+        <v>1</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" s="1">
+        <v>2</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" s="1">
+        <v>2</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" s="1">
+        <v>2</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" s="1">
+        <v>2</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" s="1">
+        <v>2</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" s="1">
+        <v>2</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" s="1">
+        <v>2</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" s="1">
+        <v>2</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" s="1">
+        <v>2</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" s="1">
+        <v>2</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/data/specialthanks.xlsx
+++ b/data/specialthanks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[Document]\Tencent Files\1281616438\FileRecv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB93B3F-7CF5-40C1-BB05-953C01688E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B03CC4-1B8A-4066-9A68-FB41FBF3F714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8380" yWindow="8150" windowWidth="17880" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="specialthanks" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="301">
   <si>
     <t>$id</t>
   </si>
@@ -776,17 +776,211 @@
     <t>手扶拖拉机没有未来?</t>
   </si>
   <si>
+    <t>再见明日香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小猪和小蓉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋艳艳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司徒纯钧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LienVictor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卑鄙的电波姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银河小将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肯特叔叔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老咸鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级无敌暴龙战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有梦人天涯若比邻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bearandog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平平安安发大财</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界上唯一的英雄主义，就是看清现实之后仍旧热爱生活！活着无法重来，那就尽全力过好剩余的人生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小乔的合法老公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>希月</t>
-  </si>
-  <si>
-    <t>超级无敌暴龙战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不務正业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tatame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老亚瑟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请你们吃一些有肉的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東雪蓮official</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐小通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArkzyF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我喜欢吉林大学生命科学学院的袁嘉蔚！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Persona</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从从从从从心丶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚瑟王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮爹万岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗红茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麒麟游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小破孩儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓬莱人形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#5fa371</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就叫小星星呀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grayblur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大琛哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚来天欲雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gameislife@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,6 +991,23 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -818,10 +1029,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -829,9 +1041,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1104,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D237"/>
+  <dimension ref="A1:E281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="D245" sqref="D245"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="D258" sqref="D258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1119,7 +1338,7 @@
     <col min="5" max="16384" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1132,13 +1351,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1152,7 +1374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1163,7 +1385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1174,7 +1396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1185,7 +1407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1196,7 +1418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1207,7 +1429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1218,7 +1440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1229,7 +1451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1240,7 +1462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1251,7 +1473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1262,7 +1484,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1273,7 +1495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1284,7 +1506,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3765,13 +3987,518 @@
       <c r="B237" s="1">
         <v>2</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="C237" s="3" t="s">
         <v>252</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" s="1">
+        <v>2</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" s="1">
+        <v>2</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" s="1">
+        <v>2</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" s="1">
+        <v>2</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" s="1">
+        <v>1</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" s="1">
+        <v>2</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" s="1">
+        <v>2</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" s="1">
+        <v>2</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" s="1">
+        <v>2</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" s="1">
+        <v>2</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" s="1">
+        <v>2</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" s="1">
+        <v>2</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" s="1">
+        <v>2</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" s="1">
+        <v>2</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" s="1">
+        <v>1</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" s="1">
+        <v>2</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" s="1">
+        <v>2</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" s="1">
+        <v>2</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" s="1">
+        <v>2</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" s="1">
+        <v>2</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" s="1">
+        <v>2</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" s="1">
+        <v>2</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" s="1">
+        <v>2</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" s="1">
+        <v>1</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" s="1">
+        <v>2</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" s="1">
+        <v>2</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" s="1">
+        <v>2</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" s="1">
+        <v>1</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" s="1">
+        <v>2</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" s="1">
+        <v>2</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" s="1">
+        <v>2</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" s="1">
+        <v>2</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" s="1">
+        <v>2</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" s="1">
+        <v>2</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" s="1">
+        <v>2</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" s="1">
+        <v>2</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" s="1">
+        <v>2</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" s="1">
+        <v>2</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" s="1">
+        <v>2</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" s="1">
+        <v>2</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" s="1">
+        <v>2</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" s="1">
+        <v>2</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" s="1">
+        <v>2</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" s="1">
+        <v>2</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C281" r:id="rId1" xr:uid="{EFEB6B61-6435-4392-99B1-CAF9DD6A437F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>